--- a/data/download_SH563300.xlsx
+++ b/data/download_SH563300.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F315"/>
+  <dimension ref="A1:F330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7989,7 +7989,7 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>1.024</v>
+        <v>1.003</v>
       </c>
       <c r="D315" t="n">
         <v>1.011</v>
@@ -7998,7 +7998,367 @@
         <v>1.033</v>
       </c>
       <c r="F315" t="n">
+        <v>0.991</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>20250103</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="E316" t="n">
+        <v>1.009</v>
+      </c>
+      <c r="F316" t="n">
+        <v>0.958</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>20250106</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="E317" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="F317" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>20250107</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="E318" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="F318" t="n">
+        <v>0.949</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>20250108</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.983</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="E319" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="F319" t="n">
+        <v>0.948</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>20250109</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="E320" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="F320" t="n">
+        <v>0.973</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>20250110</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="E321" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="F321" t="n">
+        <v>0.955</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>20250113</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="E322" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="F322" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>20250114</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="F323" t="n">
+        <v>0.957</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>20250115</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>1</v>
+      </c>
+      <c r="D324" t="n">
         <v>1.003</v>
+      </c>
+      <c r="E324" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F324" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>20250116</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="E325" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="F325" t="n">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>20250117</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>1.008</v>
+      </c>
+      <c r="D326" t="n">
+        <v>1.004</v>
+      </c>
+      <c r="E326" t="n">
+        <v>1.016</v>
+      </c>
+      <c r="F326" t="n">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>20250120</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>1.018</v>
+      </c>
+      <c r="D327" t="n">
+        <v>1.016</v>
+      </c>
+      <c r="E327" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="F327" t="n">
+        <v>1.004</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>20250121</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>1.021</v>
+      </c>
+      <c r="D328" t="n">
+        <v>1.022</v>
+      </c>
+      <c r="E328" t="n">
+        <v>1.025</v>
+      </c>
+      <c r="F328" t="n">
+        <v>1.004</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>20250122</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>1.008</v>
+      </c>
+      <c r="D329" t="n">
+        <v>1.013</v>
+      </c>
+      <c r="E329" t="n">
+        <v>1.019</v>
+      </c>
+      <c r="F329" t="n">
+        <v>1.003</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>20250123</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1.018</v>
+      </c>
+      <c r="E330" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F330" t="n">
+        <v>1.004</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SH563300.xlsx
+++ b/data/download_SH563300.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F330"/>
+  <dimension ref="A1:F345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8361,6 +8361,366 @@
         <v>1.004</v>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>20250124</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D331" t="n">
+        <v>1.001</v>
+      </c>
+      <c r="E331" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>20250127</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="D332" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="E332" t="n">
+        <v>1.029</v>
+      </c>
+      <c r="F332" t="n">
+        <v>1.005</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>20250205</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>1.018</v>
+      </c>
+      <c r="D333" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E333" t="n">
+        <v>1.023</v>
+      </c>
+      <c r="F333" t="n">
+        <v>1.009</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>20250206</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>1.048</v>
+      </c>
+      <c r="D334" t="n">
+        <v>1.016</v>
+      </c>
+      <c r="E334" t="n">
+        <v>1.049</v>
+      </c>
+      <c r="F334" t="n">
+        <v>1.011</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>20250207</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D335" t="n">
+        <v>1.047</v>
+      </c>
+      <c r="E335" t="n">
+        <v>1.072</v>
+      </c>
+      <c r="F335" t="n">
+        <v>1.044</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>20250210</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>1.084</v>
+      </c>
+      <c r="D336" t="n">
+        <v>1.061</v>
+      </c>
+      <c r="E336" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="F336" t="n">
+        <v>1.059</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>20250211</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D337" t="n">
+        <v>1.084</v>
+      </c>
+      <c r="E337" t="n">
+        <v>1.089</v>
+      </c>
+      <c r="F337" t="n">
+        <v>1.071</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>20250212</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>1.097</v>
+      </c>
+      <c r="D338" t="n">
+        <v>1.076</v>
+      </c>
+      <c r="E338" t="n">
+        <v>1.098</v>
+      </c>
+      <c r="F338" t="n">
+        <v>1.076</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>20250213</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D339" t="n">
+        <v>1.093</v>
+      </c>
+      <c r="E339" t="n">
+        <v>1.097</v>
+      </c>
+      <c r="F339" t="n">
+        <v>1.078</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>20250214</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="D340" t="n">
+        <v>1.076</v>
+      </c>
+      <c r="E340" t="n">
+        <v>1.084</v>
+      </c>
+      <c r="F340" t="n">
+        <v>1.073</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>20250217</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="D341" t="n">
+        <v>1.076</v>
+      </c>
+      <c r="E341" t="n">
+        <v>1.103</v>
+      </c>
+      <c r="F341" t="n">
+        <v>1.076</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>20250218</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>1.068</v>
+      </c>
+      <c r="D342" t="n">
+        <v>1.094</v>
+      </c>
+      <c r="E342" t="n">
+        <v>1.099</v>
+      </c>
+      <c r="F342" t="n">
+        <v>1.064</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>20250219</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="D343" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="E343" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="F343" t="n">
+        <v>1.065</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>20250220</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="D344" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E344" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F344" t="n">
+        <v>1.098</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>20250221</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>1.129</v>
+      </c>
+      <c r="D345" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="E345" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F345" t="n">
+        <v>1.104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH563300.xlsx
+++ b/data/download_SH563300.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F345"/>
+  <dimension ref="A1:F346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8721,6 +8721,30 @@
         <v>1.104</v>
       </c>
     </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>20250224</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="D346" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="E346" t="n">
+        <v>1.133</v>
+      </c>
+      <c r="F346" t="n">
+        <v>1.113</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH563300.xlsx
+++ b/data/download_SH563300.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F346"/>
+  <dimension ref="A1:F350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8745,6 +8745,102 @@
         <v>1.113</v>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>20250225</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>1.127</v>
+      </c>
+      <c r="D347" t="n">
+        <v>1.108</v>
+      </c>
+      <c r="E347" t="n">
+        <v>1.136</v>
+      </c>
+      <c r="F347" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>20250226</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="D348" t="n">
+        <v>1.126</v>
+      </c>
+      <c r="E348" t="n">
+        <v>1.147</v>
+      </c>
+      <c r="F348" t="n">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>20250227</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>1.139</v>
+      </c>
+      <c r="D349" t="n">
+        <v>1.145</v>
+      </c>
+      <c r="E349" t="n">
+        <v>1.148</v>
+      </c>
+      <c r="F349" t="n">
+        <v>1.119</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>20250228</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="D350" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E350" t="n">
+        <v>1.134</v>
+      </c>
+      <c r="F350" t="n">
+        <v>1.106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH563300.xlsx
+++ b/data/download_SH563300.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F350"/>
+  <dimension ref="A1:F351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8829,7 +8829,7 @@
         </is>
       </c>
       <c r="C350" t="n">
-        <v>1.109</v>
+        <v>1.093</v>
       </c>
       <c r="D350" t="n">
         <v>1.13</v>
@@ -8838,7 +8838,31 @@
         <v>1.134</v>
       </c>
       <c r="F350" t="n">
-        <v>1.106</v>
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>20250303</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1.094</v>
+      </c>
+      <c r="E351" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="F351" t="n">
+        <v>1.086</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SH563300.xlsx
+++ b/data/download_SH563300.xlsx
@@ -8853,13 +8853,13 @@
         </is>
       </c>
       <c r="C351" t="n">
-        <v>1.111</v>
+        <v>1.095</v>
       </c>
       <c r="D351" t="n">
         <v>1.094</v>
       </c>
       <c r="E351" t="n">
-        <v>1.112</v>
+        <v>1.115</v>
       </c>
       <c r="F351" t="n">
         <v>1.086</v>

--- a/data/download_SH563300.xlsx
+++ b/data/download_SH563300.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F351"/>
+  <dimension ref="A1:F387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8865,6 +8865,870 @@
         <v>1.086</v>
       </c>
     </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>20250304</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="D352" t="n">
+        <v>1.087</v>
+      </c>
+      <c r="E352" t="n">
+        <v>1.113</v>
+      </c>
+      <c r="F352" t="n">
+        <v>1.085</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>20250305</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>1.118</v>
+      </c>
+      <c r="D353" t="n">
+        <v>1.108</v>
+      </c>
+      <c r="E353" t="n">
+        <v>1.119</v>
+      </c>
+      <c r="F353" t="n">
+        <v>1.098</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>20250306</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>1.142</v>
+      </c>
+      <c r="D354" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="E354" t="n">
+        <v>1.145</v>
+      </c>
+      <c r="F354" t="n">
+        <v>1.122</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>1.131</v>
+      </c>
+      <c r="D355" t="n">
+        <v>1.136</v>
+      </c>
+      <c r="E355" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="F355" t="n">
+        <v>1.122</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>20250310</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>1.137</v>
+      </c>
+      <c r="D356" t="n">
+        <v>1.129</v>
+      </c>
+      <c r="E356" t="n">
+        <v>1.138</v>
+      </c>
+      <c r="F356" t="n">
+        <v>1.126</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>20250311</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>1.141</v>
+      </c>
+      <c r="D357" t="n">
+        <v>1.122</v>
+      </c>
+      <c r="E357" t="n">
+        <v>1.141</v>
+      </c>
+      <c r="F357" t="n">
+        <v>1.119</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>20250312</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="D358" t="n">
+        <v>1.144</v>
+      </c>
+      <c r="E358" t="n">
+        <v>1.156</v>
+      </c>
+      <c r="F358" t="n">
+        <v>1.142</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>20250313</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>1.128</v>
+      </c>
+      <c r="D359" t="n">
+        <v>1.143</v>
+      </c>
+      <c r="E359" t="n">
+        <v>1.146</v>
+      </c>
+      <c r="F359" t="n">
+        <v>1.114</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>20250314</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>1.147</v>
+      </c>
+      <c r="D360" t="n">
+        <v>1.126</v>
+      </c>
+      <c r="E360" t="n">
+        <v>1.148</v>
+      </c>
+      <c r="F360" t="n">
+        <v>1.116</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>20250317</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>1.154</v>
+      </c>
+      <c r="D361" t="n">
+        <v>1.148</v>
+      </c>
+      <c r="E361" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="F361" t="n">
+        <v>1.144</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>20250318</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>1.162</v>
+      </c>
+      <c r="D362" t="n">
+        <v>1.156</v>
+      </c>
+      <c r="E362" t="n">
+        <v>1.165</v>
+      </c>
+      <c r="F362" t="n">
+        <v>1.152</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>20250319</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>1.156</v>
+      </c>
+      <c r="D363" t="n">
+        <v>1.159</v>
+      </c>
+      <c r="E363" t="n">
+        <v>1.163</v>
+      </c>
+      <c r="F363" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>20250320</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>1.156</v>
+      </c>
+      <c r="D364" t="n">
+        <v>1.153</v>
+      </c>
+      <c r="E364" t="n">
+        <v>1.168</v>
+      </c>
+      <c r="F364" t="n">
+        <v>1.148</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>20250321</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>1.134</v>
+      </c>
+      <c r="D365" t="n">
+        <v>1.151</v>
+      </c>
+      <c r="E365" t="n">
+        <v>1.153</v>
+      </c>
+      <c r="F365" t="n">
+        <v>1.131</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>20250324</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="D366" t="n">
+        <v>1.132</v>
+      </c>
+      <c r="E366" t="n">
+        <v>1.136</v>
+      </c>
+      <c r="F366" t="n">
+        <v>1.089</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>20250325</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>1.104</v>
+      </c>
+      <c r="D367" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="E367" t="n">
+        <v>1.117</v>
+      </c>
+      <c r="F367" t="n">
+        <v>1.098</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>20250326</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>1.116</v>
+      </c>
+      <c r="D368" t="n">
+        <v>1.102</v>
+      </c>
+      <c r="E368" t="n">
+        <v>1.129</v>
+      </c>
+      <c r="F368" t="n">
+        <v>1.101</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>20250327</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D369" t="n">
+        <v>1.113</v>
+      </c>
+      <c r="E369" t="n">
+        <v>1.121</v>
+      </c>
+      <c r="F369" t="n">
+        <v>1.098</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>20250328</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>1.093</v>
+      </c>
+      <c r="D370" t="n">
+        <v>1.106</v>
+      </c>
+      <c r="E370" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="F370" t="n">
+        <v>1.092</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>1.081</v>
+      </c>
+      <c r="D371" t="n">
+        <v>1.082</v>
+      </c>
+      <c r="E371" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="F371" t="n">
+        <v>1.061</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>20250401</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>1.092</v>
+      </c>
+      <c r="D372" t="n">
+        <v>1.081</v>
+      </c>
+      <c r="E372" t="n">
+        <v>1.099</v>
+      </c>
+      <c r="F372" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>20250402</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="D373" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E373" t="n">
+        <v>1.103</v>
+      </c>
+      <c r="F373" t="n">
+        <v>1.086</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>20250403</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>1.082</v>
+      </c>
+      <c r="D374" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="E374" t="n">
+        <v>1.099</v>
+      </c>
+      <c r="F374" t="n">
+        <v>1.073</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>20250407</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="D375" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E375" t="n">
+        <v>1.031</v>
+      </c>
+      <c r="F375" t="n">
+        <v>0.974</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>20250408</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.945</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="F376" t="n">
+        <v>0.922</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>20250409</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="F377" t="n">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>20250410</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>1.002</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="E378" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="F378" t="n">
+        <v>0.983</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>20250411</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E379" t="n">
+        <v>1.022</v>
+      </c>
+      <c r="F379" t="n">
+        <v>0.989</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>20250414</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>1.031</v>
+      </c>
+      <c r="D380" t="n">
+        <v>1.019</v>
+      </c>
+      <c r="E380" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F380" t="n">
+        <v>1.019</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>20250415</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>1.033</v>
+      </c>
+      <c r="D381" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E381" t="n">
+        <v>1.035</v>
+      </c>
+      <c r="F381" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>20250416</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>1.012</v>
+      </c>
+      <c r="D382" t="n">
+        <v>1.027</v>
+      </c>
+      <c r="E382" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="F382" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>20250417</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D383" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="E383" t="n">
+        <v>1.029</v>
+      </c>
+      <c r="F383" t="n">
+        <v>1.005</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>20250418</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>1.017</v>
+      </c>
+      <c r="D384" t="n">
+        <v>1.019</v>
+      </c>
+      <c r="E384" t="n">
+        <v>1.024</v>
+      </c>
+      <c r="F384" t="n">
+        <v>1.008</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>20250421</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>1.041</v>
+      </c>
+      <c r="D385" t="n">
+        <v>1.016</v>
+      </c>
+      <c r="E385" t="n">
+        <v>1.043</v>
+      </c>
+      <c r="F385" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>20250422</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="D386" t="n">
+        <v>1.041</v>
+      </c>
+      <c r="E386" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="F386" t="n">
+        <v>1.034</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>20250423</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>1.052</v>
+      </c>
+      <c r="D387" t="n">
+        <v>1.048</v>
+      </c>
+      <c r="E387" t="n">
+        <v>1.058</v>
+      </c>
+      <c r="F387" t="n">
+        <v>1.045</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH563300.xlsx
+++ b/data/download_SH563300.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F387"/>
+  <dimension ref="A1:F389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9729,6 +9729,54 @@
         <v>1.045</v>
       </c>
     </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>20250424</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>1.039</v>
+      </c>
+      <c r="D388" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E388" t="n">
+        <v>1.053</v>
+      </c>
+      <c r="F388" t="n">
+        <v>1.033</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>1.041</v>
+      </c>
+      <c r="D389" t="n">
+        <v>1.042</v>
+      </c>
+      <c r="E389" t="n">
+        <v>1.051</v>
+      </c>
+      <c r="F389" t="n">
+        <v>1.034</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH563300.xlsx
+++ b/data/download_SH563300.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F389"/>
+  <dimension ref="A1:F394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9777,6 +9777,126 @@
         <v>1.034</v>
       </c>
     </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>20250428</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="D390" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E390" t="n">
+        <v>1.042</v>
+      </c>
+      <c r="F390" t="n">
+        <v>1.024</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>20250429</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>1.036</v>
+      </c>
+      <c r="D391" t="n">
+        <v>1.026</v>
+      </c>
+      <c r="E391" t="n">
+        <v>1.041</v>
+      </c>
+      <c r="F391" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>20250430</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D392" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E392" t="n">
+        <v>1.053</v>
+      </c>
+      <c r="F392" t="n">
+        <v>1.038</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>20250506</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>1.081</v>
+      </c>
+      <c r="D393" t="n">
+        <v>1.058</v>
+      </c>
+      <c r="E393" t="n">
+        <v>1.082</v>
+      </c>
+      <c r="F393" t="n">
+        <v>1.056</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>20250507</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D394" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="E394" t="n">
+        <v>1.113</v>
+      </c>
+      <c r="F394" t="n">
+        <v>1.076</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SH563300.xlsx
+++ b/data/download_SH563300.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F394"/>
+  <dimension ref="A1:G401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>最低Low</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅PRT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -488,6 +493,9 @@
       <c r="F2" t="n">
         <v>0.98</v>
       </c>
+      <c r="G2" t="n">
+        <v>-1.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -512,6 +520,9 @@
       <c r="F3" t="n">
         <v>0.982</v>
       </c>
+      <c r="G3" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -536,6 +547,9 @@
       <c r="F4" t="n">
         <v>0.98</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.71</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -560,6 +574,9 @@
       <c r="F5" t="n">
         <v>0.98</v>
       </c>
+      <c r="G5" t="n">
+        <v>-1.11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -584,6 +601,9 @@
       <c r="F6" t="n">
         <v>0.971</v>
       </c>
+      <c r="G6" t="n">
+        <v>-1.12</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -608,6 +628,9 @@
       <c r="F7" t="n">
         <v>0.962</v>
       </c>
+      <c r="G7" t="n">
+        <v>-0.82</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -632,6 +655,9 @@
       <c r="F8" t="n">
         <v>0.959</v>
       </c>
+      <c r="G8" t="n">
+        <v>2.07</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -656,6 +682,9 @@
       <c r="F9" t="n">
         <v>0.977</v>
       </c>
+      <c r="G9" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -680,6 +709,9 @@
       <c r="F10" t="n">
         <v>0.976</v>
       </c>
+      <c r="G10" t="n">
+        <v>-0.31</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -704,6 +736,9 @@
       <c r="F11" t="n">
         <v>0.974</v>
       </c>
+      <c r="G11" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -728,6 +763,9 @@
       <c r="F12" t="n">
         <v>0.985</v>
       </c>
+      <c r="G12" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -752,6 +790,9 @@
       <c r="F13" t="n">
         <v>0.986</v>
       </c>
+      <c r="G13" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -776,6 +817,9 @@
       <c r="F14" t="n">
         <v>0.987</v>
       </c>
+      <c r="G14" t="n">
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -800,6 +844,9 @@
       <c r="F15" t="n">
         <v>0.984</v>
       </c>
+      <c r="G15" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -824,6 +871,9 @@
       <c r="F16" t="n">
         <v>0.989</v>
       </c>
+      <c r="G16" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -848,6 +898,9 @@
       <c r="F17" t="n">
         <v>0.989</v>
       </c>
+      <c r="G17" t="n">
+        <v>-0.6</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -872,6 +925,9 @@
       <c r="F18" t="n">
         <v>0.979</v>
       </c>
+      <c r="G18" t="n">
+        <v>-0.71</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -896,6 +952,9 @@
       <c r="F19" t="n">
         <v>0.973</v>
       </c>
+      <c r="G19" t="n">
+        <v>-0.31</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -920,6 +979,9 @@
       <c r="F20" t="n">
         <v>0.96</v>
       </c>
+      <c r="G20" t="n">
+        <v>-1.84</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -944,6 +1006,9 @@
       <c r="F21" t="n">
         <v>0.953</v>
       </c>
+      <c r="G21" t="n">
+        <v>-0.52</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -968,6 +1033,9 @@
       <c r="F22" t="n">
         <v>0.9419999999999999</v>
       </c>
+      <c r="G22" t="n">
+        <v>-1.15</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -992,6 +1060,9 @@
       <c r="F23" t="n">
         <v>0.915</v>
       </c>
+      <c r="G23" t="n">
+        <v>-2.85</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1016,6 +1087,9 @@
       <c r="F24" t="n">
         <v>0.919</v>
       </c>
+      <c r="G24" t="n">
+        <v>2.29</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1040,6 +1114,9 @@
       <c r="F25" t="n">
         <v>0.9409999999999999</v>
       </c>
+      <c r="G25" t="n">
+        <v>1.91</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1064,6 +1141,9 @@
       <c r="F26" t="n">
         <v>0.9419999999999999</v>
       </c>
+      <c r="G26" t="n">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1088,6 +1168,9 @@
       <c r="F27" t="n">
         <v>0.957</v>
       </c>
+      <c r="G27" t="n">
+        <v>1.14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1112,6 +1195,9 @@
       <c r="F28" t="n">
         <v>0.971</v>
       </c>
+      <c r="G28" t="n">
+        <v>1.03</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1136,6 +1222,9 @@
       <c r="F29" t="n">
         <v>0.974</v>
       </c>
+      <c r="G29" t="n">
+        <v>-0.91</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1160,6 +1249,9 @@
       <c r="F30" t="n">
         <v>0.977</v>
       </c>
+      <c r="G30" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1184,6 +1276,9 @@
       <c r="F31" t="n">
         <v>0.971</v>
       </c>
+      <c r="G31" t="n">
+        <v>-1.02</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1208,6 +1303,9 @@
       <c r="F32" t="n">
         <v>0.972</v>
       </c>
+      <c r="G32" t="n">
+        <v>1.23</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1232,6 +1330,9 @@
       <c r="F33" t="n">
         <v>0.986</v>
       </c>
+      <c r="G33" t="n">
+        <v>2.13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1256,6 +1357,9 @@
       <c r="F34" t="n">
         <v>1.001</v>
       </c>
+      <c r="G34" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1280,6 +1384,9 @@
       <c r="F35" t="n">
         <v>1.011</v>
       </c>
+      <c r="G35" t="n">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1304,6 +1411,9 @@
       <c r="F36" t="n">
         <v>1.009</v>
       </c>
+      <c r="G36" t="n">
+        <v>-0.59</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1328,6 +1438,9 @@
       <c r="F37" t="n">
         <v>1.003</v>
       </c>
+      <c r="G37" t="n">
+        <v>-0.49</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1352,6 +1465,9 @@
       <c r="F38" t="n">
         <v>1.011</v>
       </c>
+      <c r="G38" t="n">
+        <v>1.39</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1376,6 +1492,9 @@
       <c r="F39" t="n">
         <v>1.019</v>
       </c>
+      <c r="G39" t="n">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1400,6 +1519,9 @@
       <c r="F40" t="n">
         <v>1.03</v>
       </c>
+      <c r="G40" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1424,6 +1546,9 @@
       <c r="F41" t="n">
         <v>1.028</v>
       </c>
+      <c r="G41" t="n">
+        <v>-0.29</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1448,6 +1573,9 @@
       <c r="F42" t="n">
         <v>1.027</v>
       </c>
+      <c r="G42" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1472,6 +1600,9 @@
       <c r="F43" t="n">
         <v>1.04</v>
       </c>
+      <c r="G43" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1496,6 +1627,9 @@
       <c r="F44" t="n">
         <v>1.04</v>
       </c>
+      <c r="G44" t="n">
+        <v>-0.67</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1520,6 +1654,9 @@
       <c r="F45" t="n">
         <v>1.032</v>
       </c>
+      <c r="G45" t="n">
+        <v>-0.86</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1544,6 +1681,9 @@
       <c r="F46" t="n">
         <v>1.027</v>
       </c>
+      <c r="G46" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1568,6 +1708,9 @@
       <c r="F47" t="n">
         <v>1.022</v>
       </c>
+      <c r="G47" t="n">
+        <v>-1.63</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1592,6 +1735,9 @@
       <c r="F48" t="n">
         <v>1.02</v>
       </c>
+      <c r="G48" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1616,6 +1762,9 @@
       <c r="F49" t="n">
         <v>1.021</v>
       </c>
+      <c r="G49" t="n">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1640,6 +1789,9 @@
       <c r="F50" t="n">
         <v>1.027</v>
       </c>
+      <c r="G50" t="n">
+        <v>-0.68</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1664,6 +1816,9 @@
       <c r="F51" t="n">
         <v>1.012</v>
       </c>
+      <c r="G51" t="n">
+        <v>-0.49</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1688,6 +1843,9 @@
       <c r="F52" t="n">
         <v>1.02</v>
       </c>
+      <c r="G52" t="n">
+        <v>1.07</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1712,6 +1870,9 @@
       <c r="F53" t="n">
         <v>1.032</v>
       </c>
+      <c r="G53" t="n">
+        <v>-0.29</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1736,6 +1897,9 @@
       <c r="F54" t="n">
         <v>1.012</v>
       </c>
+      <c r="G54" t="n">
+        <v>-1.74</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1760,6 +1924,9 @@
       <c r="F55" t="n">
         <v>1.009</v>
       </c>
+      <c r="G55" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1784,6 +1951,9 @@
       <c r="F56" t="n">
         <v>1.012</v>
       </c>
+      <c r="G56" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1808,6 +1978,9 @@
       <c r="F57" t="n">
         <v>1.002</v>
       </c>
+      <c r="G57" t="n">
+        <v>-1.47</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1832,6 +2005,9 @@
       <c r="F58" t="n">
         <v>0.991</v>
       </c>
+      <c r="G58" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1856,6 +2032,9 @@
       <c r="F59" t="n">
         <v>1.012</v>
       </c>
+      <c r="G59" t="n">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1880,6 +2059,9 @@
       <c r="F60" t="n">
         <v>1.014</v>
       </c>
+      <c r="G60" t="n">
+        <v>-0.29</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1904,6 +2086,9 @@
       <c r="F61" t="n">
         <v>1.009</v>
       </c>
+      <c r="G61" t="n">
+        <v>-0.49</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1928,6 +2113,9 @@
       <c r="F62" t="n">
         <v>1.003</v>
       </c>
+      <c r="G62" t="n">
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1952,6 +2140,9 @@
       <c r="F63" t="n">
         <v>0.991</v>
       </c>
+      <c r="G63" t="n">
+        <v>-1.39</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1976,6 +2167,9 @@
       <c r="F64" t="n">
         <v>0.988</v>
       </c>
+      <c r="G64" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2000,6 +2194,9 @@
       <c r="F65" t="n">
         <v>0.984</v>
       </c>
+      <c r="G65" t="n">
+        <v>-0.91</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2024,6 +2221,9 @@
       <c r="F66" t="n">
         <v>0.967</v>
       </c>
+      <c r="G66" t="n">
+        <v>1.02</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2048,6 +2248,9 @@
       <c r="F67" t="n">
         <v>0.974</v>
       </c>
+      <c r="G67" t="n">
+        <v>-1.71</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2072,6 +2275,9 @@
       <c r="F68" t="n">
         <v>0.967</v>
       </c>
+      <c r="G68" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2096,6 +2302,9 @@
       <c r="F69" t="n">
         <v>0.96</v>
       </c>
+      <c r="G69" t="n">
+        <v>-1.33</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2120,6 +2329,9 @@
       <c r="F70" t="n">
         <v>0.958</v>
       </c>
+      <c r="G70" t="n">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2144,6 +2356,9 @@
       <c r="F71" t="n">
         <v>0.963</v>
       </c>
+      <c r="G71" t="n">
+        <v>2.17</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2168,6 +2383,9 @@
       <c r="F72" t="n">
         <v>0.989</v>
       </c>
+      <c r="G72" t="n">
+        <v>2.12</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2192,6 +2410,9 @@
       <c r="F73" t="n">
         <v>1.006</v>
       </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2216,6 +2437,9 @@
       <c r="F74" t="n">
         <v>0.992</v>
       </c>
+      <c r="G74" t="n">
+        <v>-0.49</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2240,6 +2464,9 @@
       <c r="F75" t="n">
         <v>0.998</v>
       </c>
+      <c r="G75" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2264,6 +2491,9 @@
       <c r="F76" t="n">
         <v>0.979</v>
       </c>
+      <c r="G76" t="n">
+        <v>-2.48</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2288,6 +2518,9 @@
       <c r="F77" t="n">
         <v>0.964</v>
       </c>
+      <c r="G77" t="n">
+        <v>-1.83</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2312,6 +2545,9 @@
       <c r="F78" t="n">
         <v>0.968</v>
       </c>
+      <c r="G78" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2336,6 +2572,9 @@
       <c r="F79" t="n">
         <v>0.958</v>
       </c>
+      <c r="G79" t="n">
+        <v>-1.12</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2360,6 +2599,9 @@
       <c r="F80" t="n">
         <v>0.963</v>
       </c>
+      <c r="G80" t="n">
+        <v>2.07</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2384,6 +2626,9 @@
       <c r="F81" t="n">
         <v>0.973</v>
       </c>
+      <c r="G81" t="n">
+        <v>-1.01</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2408,6 +2653,9 @@
       <c r="F82" t="n">
         <v>0.969</v>
       </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2432,6 +2680,9 @@
       <c r="F83" t="n">
         <v>0.96</v>
       </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2456,6 +2707,9 @@
       <c r="F84" t="n">
         <v>0.952</v>
       </c>
+      <c r="G84" t="n">
+        <v>-2.46</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2480,6 +2734,9 @@
       <c r="F85" t="n">
         <v>0.92</v>
       </c>
+      <c r="G85" t="n">
+        <v>-0.31</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2504,6 +2761,9 @@
       <c r="F86" t="n">
         <v>0.931</v>
       </c>
+      <c r="G86" t="n">
+        <v>-1.79</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2528,6 +2788,9 @@
       <c r="F87" t="n">
         <v>0.867</v>
       </c>
+      <c r="G87" t="n">
+        <v>-6.32</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2552,6 +2815,9 @@
       <c r="F88" t="n">
         <v>0.858</v>
       </c>
+      <c r="G88" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2576,6 +2842,9 @@
       <c r="F89" t="n">
         <v>0.859</v>
       </c>
+      <c r="G89" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2600,6 +2869,9 @@
       <c r="F90" t="n">
         <v>0.882</v>
       </c>
+      <c r="G90" t="n">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2624,6 +2896,9 @@
       <c r="F91" t="n">
         <v>0.913</v>
       </c>
+      <c r="G91" t="n">
+        <v>-0.43</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2648,6 +2923,9 @@
       <c r="F92" t="n">
         <v>0.884</v>
       </c>
+      <c r="G92" t="n">
+        <v>-3.59</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2672,6 +2950,9 @@
       <c r="F93" t="n">
         <v>0.856</v>
       </c>
+      <c r="G93" t="n">
+        <v>-3.05</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2696,6 +2977,9 @@
       <c r="F94" t="n">
         <v>0.8159999999999999</v>
       </c>
+      <c r="G94" t="n">
+        <v>-4.55</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2720,6 +3004,9 @@
       <c r="F95" t="n">
         <v>0.792</v>
       </c>
+      <c r="G95" t="n">
+        <v>-1.59</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2744,6 +3031,9 @@
       <c r="F96" t="n">
         <v>0.749</v>
       </c>
+      <c r="G96" t="n">
+        <v>-4.59</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2768,6 +3058,9 @@
       <c r="F97" t="n">
         <v>0.695</v>
       </c>
+      <c r="G97" t="n">
+        <v>-8.19</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2792,6 +3085,9 @@
       <c r="F98" t="n">
         <v>0.66</v>
       </c>
+      <c r="G98" t="n">
+        <v>3.54</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2816,6 +3112,9 @@
       <c r="F99" t="n">
         <v>0.697</v>
       </c>
+      <c r="G99" t="n">
+        <v>-2.6</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2840,6 +3139,9 @@
       <c r="F100" t="n">
         <v>0.71</v>
       </c>
+      <c r="G100" t="n">
+        <v>9.970000000000001</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2864,6 +3166,9 @@
       <c r="F101" t="n">
         <v>0.752</v>
       </c>
+      <c r="G101" t="n">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2888,6 +3193,9 @@
       <c r="F102" t="n">
         <v>0.779</v>
       </c>
+      <c r="G102" t="n">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2912,6 +3220,9 @@
       <c r="F103" t="n">
         <v>0.784</v>
       </c>
+      <c r="G103" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2936,6 +3247,9 @@
       <c r="F104" t="n">
         <v>0.802</v>
       </c>
+      <c r="G104" t="n">
+        <v>2.73</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2960,6 +3274,9 @@
       <c r="F105" t="n">
         <v>0.823</v>
       </c>
+      <c r="G105" t="n">
+        <v>3.51</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2984,6 +3301,9 @@
       <c r="F106" t="n">
         <v>0.85</v>
       </c>
+      <c r="G106" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3008,6 +3328,9 @@
       <c r="F107" t="n">
         <v>0.855</v>
       </c>
+      <c r="G107" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3032,6 +3355,9 @@
       <c r="F108" t="n">
         <v>0.828</v>
       </c>
+      <c r="G108" t="n">
+        <v>-6.83</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3056,6 +3382,9 @@
       <c r="F109" t="n">
         <v>0.821</v>
       </c>
+      <c r="G109" t="n">
+        <v>4.33</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3080,6 +3409,9 @@
       <c r="F110" t="n">
         <v>0.865</v>
       </c>
+      <c r="G110" t="n">
+        <v>1.61</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3104,6 +3436,9 @@
       <c r="F111" t="n">
         <v>0.863</v>
       </c>
+      <c r="G111" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3128,6 +3463,9 @@
       <c r="F112" t="n">
         <v>0.868</v>
       </c>
+      <c r="G112" t="n">
+        <v>-1.47</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3152,6 +3490,9 @@
       <c r="F113" t="n">
         <v>0.865</v>
       </c>
+      <c r="G113" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3176,6 +3517,9 @@
       <c r="F114" t="n">
         <v>0.872</v>
       </c>
+      <c r="G114" t="n">
+        <v>-1.13</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3200,6 +3544,9 @@
       <c r="F115" t="n">
         <v>0.87</v>
       </c>
+      <c r="G115" t="n">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3224,6 +3571,9 @@
       <c r="F116" t="n">
         <v>0.883</v>
       </c>
+      <c r="G116" t="n">
+        <v>2.48</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3248,6 +3598,9 @@
       <c r="F117" t="n">
         <v>0.899</v>
       </c>
+      <c r="G117" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3272,6 +3625,9 @@
       <c r="F118" t="n">
         <v>0.909</v>
       </c>
+      <c r="G118" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3296,6 +3652,9 @@
       <c r="F119" t="n">
         <v>0.897</v>
       </c>
+      <c r="G119" t="n">
+        <v>-0.98</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3320,6 +3679,9 @@
       <c r="F120" t="n">
         <v>0.904</v>
       </c>
+      <c r="G120" t="n">
+        <v>1.65</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3344,6 +3706,9 @@
       <c r="F121" t="n">
         <v>0.921</v>
       </c>
+      <c r="G121" t="n">
+        <v>2.06</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3368,6 +3733,9 @@
       <c r="F122" t="n">
         <v>0.9330000000000001</v>
       </c>
+      <c r="G122" t="n">
+        <v>-0.85</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3392,6 +3760,9 @@
       <c r="F123" t="n">
         <v>0.9330000000000001</v>
       </c>
+      <c r="G123" t="n">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3416,6 +3787,9 @@
       <c r="F124" t="n">
         <v>0.9350000000000001</v>
       </c>
+      <c r="G124" t="n">
+        <v>-0.21</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3440,6 +3814,9 @@
       <c r="F125" t="n">
         <v>0.922</v>
       </c>
+      <c r="G125" t="n">
+        <v>-1.17</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3464,6 +3841,9 @@
       <c r="F126" t="n">
         <v>0.91</v>
       </c>
+      <c r="G126" t="n">
+        <v>-2.36</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3488,6 +3868,9 @@
       <c r="F127" t="n">
         <v>0.895</v>
       </c>
+      <c r="G127" t="n">
+        <v>-0.22</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3512,6 +3895,9 @@
       <c r="F128" t="n">
         <v>0.879</v>
       </c>
+      <c r="G128" t="n">
+        <v>-3.08</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3536,6 +3922,9 @@
       <c r="F129" t="n">
         <v>0.868</v>
       </c>
+      <c r="G129" t="n">
+        <v>2.61</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3560,6 +3949,9 @@
       <c r="F130" t="n">
         <v>0.897</v>
       </c>
+      <c r="G130" t="n">
+        <v>1.11</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3584,6 +3976,9 @@
       <c r="F131" t="n">
         <v>0.917</v>
       </c>
+      <c r="G131" t="n">
+        <v>1.97</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3608,6 +4003,9 @@
       <c r="F132" t="n">
         <v>0.92</v>
       </c>
+      <c r="G132" t="n">
+        <v>-0.43</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3632,6 +4030,9 @@
       <c r="F133" t="n">
         <v>0.909</v>
       </c>
+      <c r="G133" t="n">
+        <v>-0.97</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3656,6 +4057,9 @@
       <c r="F134" t="n">
         <v>0.9</v>
       </c>
+      <c r="G134" t="n">
+        <v>-1.96</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3680,6 +4084,9 @@
       <c r="F135" t="n">
         <v>0.898</v>
       </c>
+      <c r="G135" t="n">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3704,6 +4111,9 @@
       <c r="F136" t="n">
         <v>0.884</v>
       </c>
+      <c r="G136" t="n">
+        <v>-2.51</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3728,6 +4138,9 @@
       <c r="F137" t="n">
         <v>0.883</v>
       </c>
+      <c r="G137" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3752,6 +4165,9 @@
       <c r="F138" t="n">
         <v>0.89</v>
       </c>
+      <c r="G138" t="n">
+        <v>-0.67</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3776,6 +4192,9 @@
       <c r="F139" t="n">
         <v>0.849</v>
       </c>
+      <c r="G139" t="n">
+        <v>-3.59</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3800,6 +4219,9 @@
       <c r="F140" t="n">
         <v>0.8090000000000001</v>
       </c>
+      <c r="G140" t="n">
+        <v>-3.84</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3824,6 +4246,9 @@
       <c r="F141" t="n">
         <v>0.8129999999999999</v>
       </c>
+      <c r="G141" t="n">
+        <v>4.47</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3848,6 +4273,9 @@
       <c r="F142" t="n">
         <v>0.844</v>
       </c>
+      <c r="G142" t="n">
+        <v>-1.5</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3872,6 +4300,9 @@
       <c r="F143" t="n">
         <v>0.843</v>
       </c>
+      <c r="G143" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3896,6 +4327,9 @@
       <c r="F144" t="n">
         <v>0.83</v>
       </c>
+      <c r="G144" t="n">
+        <v>-0.47</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3920,6 +4354,9 @@
       <c r="F145" t="n">
         <v>0.845</v>
       </c>
+      <c r="G145" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3944,6 +4381,9 @@
       <c r="F146" t="n">
         <v>0.85</v>
       </c>
+      <c r="G146" t="n">
+        <v>2.36</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3968,6 +4408,9 @@
       <c r="F147" t="n">
         <v>0.859</v>
       </c>
+      <c r="G147" t="n">
+        <v>-0.35</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3992,6 +4435,9 @@
       <c r="F148" t="n">
         <v>0.861</v>
       </c>
+      <c r="G148" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4016,6 +4462,9 @@
       <c r="F149" t="n">
         <v>0.88</v>
       </c>
+      <c r="G149" t="n">
+        <v>2.61</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4040,6 +4489,9 @@
       <c r="F150" t="n">
         <v>0.887</v>
       </c>
+      <c r="G150" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4064,6 +4516,9 @@
       <c r="F151" t="n">
         <v>0.903</v>
       </c>
+      <c r="G151" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4088,6 +4543,9 @@
       <c r="F152" t="n">
         <v>0.906</v>
       </c>
+      <c r="G152" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4112,6 +4570,9 @@
       <c r="F153" t="n">
         <v>0.901</v>
       </c>
+      <c r="G153" t="n">
+        <v>-1.31</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4136,6 +4597,9 @@
       <c r="F154" t="n">
         <v>0.9</v>
       </c>
+      <c r="G154" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4160,6 +4624,9 @@
       <c r="F155" t="n">
         <v>0.901</v>
       </c>
+      <c r="G155" t="n">
+        <v>-0.99</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4184,6 +4651,9 @@
       <c r="F156" t="n">
         <v>0.887</v>
       </c>
+      <c r="G156" t="n">
+        <v>-1.22</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4208,6 +4678,9 @@
       <c r="F157" t="n">
         <v>0.892</v>
       </c>
+      <c r="G157" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4232,6 +4705,9 @@
       <c r="F158" t="n">
         <v>0.889</v>
       </c>
+      <c r="G158" t="n">
+        <v>-0.89</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4256,6 +4732,9 @@
       <c r="F159" t="n">
         <v>0.892</v>
       </c>
+      <c r="G159" t="n">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4280,6 +4759,9 @@
       <c r="F160" t="n">
         <v>0.89</v>
       </c>
+      <c r="G160" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4304,6 +4786,9 @@
       <c r="F161" t="n">
         <v>0.902</v>
       </c>
+      <c r="G161" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4328,6 +4813,9 @@
       <c r="F162" t="n">
         <v>0.896</v>
       </c>
+      <c r="G162" t="n">
+        <v>-0.99</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4352,6 +4840,9 @@
       <c r="F163" t="n">
         <v>0.895</v>
       </c>
+      <c r="G163" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4376,6 +4867,9 @@
       <c r="F164" t="n">
         <v>0.881</v>
       </c>
+      <c r="G164" t="n">
+        <v>-2.21</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4400,6 +4894,9 @@
       <c r="F165" t="n">
         <v>0.874</v>
       </c>
+      <c r="G165" t="n">
+        <v>-1.02</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4424,6 +4921,9 @@
       <c r="F166" t="n">
         <v>0.866</v>
       </c>
+      <c r="G166" t="n">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4448,6 +4948,9 @@
       <c r="F167" t="n">
         <v>0.875</v>
       </c>
+      <c r="G167" t="n">
+        <v>-0.79</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4472,6 +4975,9 @@
       <c r="F168" t="n">
         <v>0.872</v>
       </c>
+      <c r="G168" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4496,6 +5002,9 @@
       <c r="F169" t="n">
         <v>0.867</v>
       </c>
+      <c r="G169" t="n">
+        <v>-0.68</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4520,6 +5029,9 @@
       <c r="F170" t="n">
         <v>0.871</v>
       </c>
+      <c r="G170" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4544,6 +5056,9 @@
       <c r="F171" t="n">
         <v>0.854</v>
       </c>
+      <c r="G171" t="n">
+        <v>-1.82</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4568,6 +5083,9 @@
       <c r="F172" t="n">
         <v>0.843</v>
       </c>
+      <c r="G172" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4592,6 +5110,9 @@
       <c r="F173" t="n">
         <v>0.836</v>
       </c>
+      <c r="G173" t="n">
+        <v>-1.99</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4616,6 +5137,9 @@
       <c r="F174" t="n">
         <v>0.802</v>
       </c>
+      <c r="G174" t="n">
+        <v>-1.43</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4640,6 +5164,9 @@
       <c r="F175" t="n">
         <v>0.8080000000000001</v>
       </c>
+      <c r="G175" t="n">
+        <v>-0.85</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4664,6 +5191,9 @@
       <c r="F176" t="n">
         <v>0.803</v>
       </c>
+      <c r="G176" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4688,6 +5218,9 @@
       <c r="F177" t="n">
         <v>0.82</v>
       </c>
+      <c r="G177" t="n">
+        <v>1.46</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4712,6 +5245,9 @@
       <c r="F178" t="n">
         <v>0.829</v>
       </c>
+      <c r="G178" t="n">
+        <v>-0.48</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4736,6 +5272,9 @@
       <c r="F179" t="n">
         <v>0.821</v>
       </c>
+      <c r="G179" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4760,6 +5299,9 @@
       <c r="F180" t="n">
         <v>0.823</v>
       </c>
+      <c r="G180" t="n">
+        <v>-0.6</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4784,6 +5326,9 @@
       <c r="F181" t="n">
         <v>0.826</v>
       </c>
+      <c r="G181" t="n">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4808,6 +5353,9 @@
       <c r="F182" t="n">
         <v>0.832</v>
       </c>
+      <c r="G182" t="n">
+        <v>-0.71</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4832,6 +5380,9 @@
       <c r="F183" t="n">
         <v>0.8149999999999999</v>
       </c>
+      <c r="G183" t="n">
+        <v>-2.28</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4856,6 +5407,9 @@
       <c r="F184" t="n">
         <v>0.8080000000000001</v>
       </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4880,6 +5434,9 @@
       <c r="F185" t="n">
         <v>0.782</v>
       </c>
+      <c r="G185" t="n">
+        <v>-3.8</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4904,6 +5461,9 @@
       <c r="F186" t="n">
         <v>0.777</v>
       </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4928,6 +5488,9 @@
       <c r="F187" t="n">
         <v>0.775</v>
       </c>
+      <c r="G187" t="n">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4952,6 +5515,9 @@
       <c r="F188" t="n">
         <v>0.787</v>
       </c>
+      <c r="G188" t="n">
+        <v>-2.35</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4976,6 +5542,9 @@
       <c r="F189" t="n">
         <v>0.783</v>
       </c>
+      <c r="G189" t="n">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5000,6 +5569,9 @@
       <c r="F190" t="n">
         <v>0.785</v>
       </c>
+      <c r="G190" t="n">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5024,6 +5596,9 @@
       <c r="F191" t="n">
         <v>0.795</v>
       </c>
+      <c r="G191" t="n">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5048,6 +5623,9 @@
       <c r="F192" t="n">
         <v>0.79</v>
       </c>
+      <c r="G192" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5072,6 +5650,9 @@
       <c r="F193" t="n">
         <v>0.767</v>
       </c>
+      <c r="G193" t="n">
+        <v>-2.53</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5096,6 +5677,9 @@
       <c r="F194" t="n">
         <v>0.758</v>
       </c>
+      <c r="G194" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5120,6 +5704,9 @@
       <c r="F195" t="n">
         <v>0.754</v>
       </c>
+      <c r="G195" t="n">
+        <v>-2.71</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5144,6 +5731,9 @@
       <c r="F196" t="n">
         <v>0.743</v>
       </c>
+      <c r="G196" t="n">
+        <v>1.99</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5168,6 +5758,9 @@
       <c r="F197" t="n">
         <v>0.761</v>
       </c>
+      <c r="G197" t="n">
+        <v>-0.78</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5192,6 +5785,9 @@
       <c r="F198" t="n">
         <v>0.774</v>
       </c>
+      <c r="G198" t="n">
+        <v>3.66</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5216,6 +5812,9 @@
       <c r="F199" t="n">
         <v>0.783</v>
       </c>
+      <c r="G199" t="n">
+        <v>-0.51</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5240,6 +5839,9 @@
       <c r="F200" t="n">
         <v>0.772</v>
       </c>
+      <c r="G200" t="n">
+        <v>-1.78</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5264,6 +5866,9 @@
       <c r="F201" t="n">
         <v>0.767</v>
       </c>
+      <c r="G201" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5288,6 +5893,9 @@
       <c r="F202" t="n">
         <v>0.762</v>
       </c>
+      <c r="G202" t="n">
+        <v>-1.29</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5312,6 +5920,9 @@
       <c r="F203" t="n">
         <v>0.747</v>
       </c>
+      <c r="G203" t="n">
+        <v>-0.39</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5336,6 +5947,9 @@
       <c r="F204" t="n">
         <v>0.756</v>
       </c>
+      <c r="G204" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5360,6 +5974,9 @@
       <c r="F205" t="n">
         <v>0.762</v>
       </c>
+      <c r="G205" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5384,6 +6001,9 @@
       <c r="F206" t="n">
         <v>0.753</v>
       </c>
+      <c r="G206" t="n">
+        <v>-1.95</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -5408,6 +6028,9 @@
       <c r="F207" t="n">
         <v>0.741</v>
       </c>
+      <c r="G207" t="n">
+        <v>-1.46</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5432,6 +6055,9 @@
       <c r="F208" t="n">
         <v>0.735</v>
       </c>
+      <c r="G208" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5456,6 +6082,9 @@
       <c r="F209" t="n">
         <v>0.744</v>
       </c>
+      <c r="G209" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5480,6 +6109,9 @@
       <c r="F210" t="n">
         <v>0.752</v>
       </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5504,6 +6136,9 @@
       <c r="F211" t="n">
         <v>0.755</v>
       </c>
+      <c r="G211" t="n">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5528,6 +6163,9 @@
       <c r="F212" t="n">
         <v>0.761</v>
       </c>
+      <c r="G212" t="n">
+        <v>3.66</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5552,6 +6190,9 @@
       <c r="F213" t="n">
         <v>0.789</v>
       </c>
+      <c r="G213" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -5576,6 +6217,9 @@
       <c r="F214" t="n">
         <v>0.782</v>
       </c>
+      <c r="G214" t="n">
+        <v>-1.38</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -5600,6 +6244,9 @@
       <c r="F215" t="n">
         <v>0.762</v>
       </c>
+      <c r="G215" t="n">
+        <v>-2.68</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -5624,6 +6271,9 @@
       <c r="F216" t="n">
         <v>0.768</v>
       </c>
+      <c r="G216" t="n">
+        <v>2.23</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -5648,6 +6298,9 @@
       <c r="F217" t="n">
         <v>0.776</v>
       </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -5672,6 +6325,9 @@
       <c r="F218" t="n">
         <v>0.768</v>
       </c>
+      <c r="G218" t="n">
+        <v>-0.26</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -5696,6 +6352,9 @@
       <c r="F219" t="n">
         <v>0.771</v>
       </c>
+      <c r="G219" t="n">
+        <v>-0.64</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -5720,6 +6379,9 @@
       <c r="F220" t="n">
         <v>0.762</v>
       </c>
+      <c r="G220" t="n">
+        <v>-0.91</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -5744,6 +6406,9 @@
       <c r="F221" t="n">
         <v>0.758</v>
       </c>
+      <c r="G221" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -5768,6 +6433,9 @@
       <c r="F222" t="n">
         <v>0.767</v>
       </c>
+      <c r="G222" t="n">
+        <v>-0.39</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -5792,6 +6460,9 @@
       <c r="F223" t="n">
         <v>0.763</v>
       </c>
+      <c r="G223" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -5816,6 +6487,9 @@
       <c r="F224" t="n">
         <v>0.775</v>
       </c>
+      <c r="G224" t="n">
+        <v>-0.51</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -5840,6 +6514,9 @@
       <c r="F225" t="n">
         <v>0.77</v>
       </c>
+      <c r="G225" t="n">
+        <v>-0.26</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -5864,6 +6541,9 @@
       <c r="F226" t="n">
         <v>0.756</v>
       </c>
+      <c r="G226" t="n">
+        <v>-1.81</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -5888,6 +6568,9 @@
       <c r="F227" t="n">
         <v>0.755</v>
       </c>
+      <c r="G227" t="n">
+        <v>-0.13</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -5912,6 +6595,9 @@
       <c r="F228" t="n">
         <v>0.74</v>
       </c>
+      <c r="G228" t="n">
+        <v>-1.45</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -5936,6 +6622,9 @@
       <c r="F229" t="n">
         <v>0.734</v>
       </c>
+      <c r="G229" t="n">
+        <v>-0.8</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -5960,6 +6649,9 @@
       <c r="F230" t="n">
         <v>0.738</v>
       </c>
+      <c r="G230" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -5984,6 +6676,9 @@
       <c r="F231" t="n">
         <v>0.735</v>
       </c>
+      <c r="G231" t="n">
+        <v>-1.6</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6008,6 +6703,9 @@
       <c r="F232" t="n">
         <v>0.732</v>
       </c>
+      <c r="G232" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6032,6 +6730,9 @@
       <c r="F233" t="n">
         <v>0.73</v>
       </c>
+      <c r="G233" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6056,6 +6757,9 @@
       <c r="F234" t="n">
         <v>0.75</v>
       </c>
+      <c r="G234" t="n">
+        <v>2.26</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6080,6 +6784,9 @@
       <c r="F235" t="n">
         <v>0.754</v>
       </c>
+      <c r="G235" t="n">
+        <v>-1.95</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6104,6 +6811,9 @@
       <c r="F236" t="n">
         <v>0.753</v>
       </c>
+      <c r="G236" t="n">
+        <v>1.46</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6128,6 +6838,9 @@
       <c r="F237" t="n">
         <v>0.755</v>
       </c>
+      <c r="G237" t="n">
+        <v>-0.92</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -6152,6 +6865,9 @@
       <c r="F238" t="n">
         <v>0.758</v>
       </c>
+      <c r="G238" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -6176,6 +6892,9 @@
       <c r="F239" t="n">
         <v>0.751</v>
       </c>
+      <c r="G239" t="n">
+        <v>-1.69</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -6200,6 +6919,9 @@
       <c r="F240" t="n">
         <v>0.742</v>
       </c>
+      <c r="G240" t="n">
+        <v>-0.66</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -6224,6 +6946,9 @@
       <c r="F241" t="n">
         <v>0.739</v>
       </c>
+      <c r="G241" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -6248,6 +6973,9 @@
       <c r="F242" t="n">
         <v>0.744</v>
       </c>
+      <c r="G242" t="n">
+        <v>-0.66</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -6272,6 +7000,9 @@
       <c r="F243" t="n">
         <v>0.746</v>
       </c>
+      <c r="G243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -6296,6 +7027,9 @@
       <c r="F244" t="n">
         <v>0.734</v>
       </c>
+      <c r="G244" t="n">
+        <v>-1.61</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -6320,6 +7054,9 @@
       <c r="F245" t="n">
         <v>0.72</v>
       </c>
+      <c r="G245" t="n">
+        <v>-0.68</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -6344,6 +7081,9 @@
       <c r="F246" t="n">
         <v>0.731</v>
       </c>
+      <c r="G246" t="n">
+        <v>2.74</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -6368,6 +7108,9 @@
       <c r="F247" t="n">
         <v>0.741</v>
       </c>
+      <c r="G247" t="n">
+        <v>-0.53</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -6392,6 +7135,9 @@
       <c r="F248" t="n">
         <v>0.742</v>
       </c>
+      <c r="G248" t="n">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -6416,6 +7162,9 @@
       <c r="F249" t="n">
         <v>0.747</v>
       </c>
+      <c r="G249" t="n">
+        <v>3.75</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -6440,6 +7189,9 @@
       <c r="F250" t="n">
         <v>0.776</v>
       </c>
+      <c r="G250" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -6464,6 +7216,9 @@
       <c r="F251" t="n">
         <v>0.775</v>
       </c>
+      <c r="G251" t="n">
+        <v>3.45</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -6488,6 +7243,9 @@
       <c r="F252" t="n">
         <v>0.8139999999999999</v>
       </c>
+      <c r="G252" t="n">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -6512,6 +7270,9 @@
       <c r="F253" t="n">
         <v>0.859</v>
       </c>
+      <c r="G253" t="n">
+        <v>8.74</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -6536,6 +7297,9 @@
       <c r="F254" t="n">
         <v>0.9</v>
       </c>
+      <c r="G254" t="n">
+        <v>8.25</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -6560,6 +7324,9 @@
       <c r="F255" t="n">
         <v>0.9330000000000001</v>
       </c>
+      <c r="G255" t="n">
+        <v>-10.03</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -6584,6 +7351,9 @@
       <c r="F256" t="n">
         <v>0.904</v>
       </c>
+      <c r="G256" t="n">
+        <v>-1.39</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -6608,6 +7378,9 @@
       <c r="F257" t="n">
         <v>0.874</v>
       </c>
+      <c r="G257" t="n">
+        <v>-3.7</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -6632,6 +7405,9 @@
       <c r="F258" t="n">
         <v>0.877</v>
       </c>
+      <c r="G258" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -6656,6 +7432,9 @@
       <c r="F259" t="n">
         <v>0.902</v>
       </c>
+      <c r="G259" t="n">
+        <v>-1.53</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -6680,6 +7459,9 @@
       <c r="F260" t="n">
         <v>0.886</v>
       </c>
+      <c r="G260" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -6704,6 +7486,9 @@
       <c r="F261" t="n">
         <v>0.907</v>
       </c>
+      <c r="G261" t="n">
+        <v>-0.33</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -6728,6 +7513,9 @@
       <c r="F262" t="n">
         <v>0.904</v>
       </c>
+      <c r="G262" t="n">
+        <v>4.19</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -6752,6 +7540,9 @@
       <c r="F263" t="n">
         <v>0.9360000000000001</v>
       </c>
+      <c r="G263" t="n">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -6776,6 +7567,9 @@
       <c r="F264" t="n">
         <v>0.952</v>
       </c>
+      <c r="G264" t="n">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -6800,6 +7594,9 @@
       <c r="F265" t="n">
         <v>0.961</v>
       </c>
+      <c r="G265" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -6824,6 +7621,9 @@
       <c r="F266" t="n">
         <v>0.956</v>
       </c>
+      <c r="G266" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -6848,6 +7648,9 @@
       <c r="F267" t="n">
         <v>0.966</v>
       </c>
+      <c r="G267" t="n">
+        <v>2.69</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -6872,6 +7675,9 @@
       <c r="F268" t="n">
         <v>0.991</v>
       </c>
+      <c r="G268" t="n">
+        <v>3.23</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -6896,6 +7702,9 @@
       <c r="F269" t="n">
         <v>0.996</v>
       </c>
+      <c r="G269" t="n">
+        <v>-2.54</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -6920,6 +7729,9 @@
       <c r="F270" t="n">
         <v>0.982</v>
       </c>
+      <c r="G270" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -6944,6 +7756,9 @@
       <c r="F271" t="n">
         <v>1.003</v>
       </c>
+      <c r="G271" t="n">
+        <v>2.29</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -6968,6 +7783,9 @@
       <c r="F272" t="n">
         <v>0.98</v>
       </c>
+      <c r="G272" t="n">
+        <v>-4.57</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -6992,6 +7810,9 @@
       <c r="F273" t="n">
         <v>0.975</v>
       </c>
+      <c r="G273" t="n">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7016,6 +7837,9 @@
       <c r="F274" t="n">
         <v>1.002</v>
       </c>
+      <c r="G274" t="n">
+        <v>2.88</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -7040,6 +7864,9 @@
       <c r="F275" t="n">
         <v>1.035</v>
       </c>
+      <c r="G275" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -7064,6 +7891,9 @@
       <c r="F276" t="n">
         <v>1.03</v>
       </c>
+      <c r="G276" t="n">
+        <v>2.29</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -7088,6 +7918,9 @@
       <c r="F277" t="n">
         <v>1.07</v>
       </c>
+      <c r="G277" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -7112,6 +7945,9 @@
       <c r="F278" t="n">
         <v>1.066</v>
       </c>
+      <c r="G278" t="n">
+        <v>2.41</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -7136,6 +7972,9 @@
       <c r="F279" t="n">
         <v>1.072</v>
       </c>
+      <c r="G279" t="n">
+        <v>-1.81</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -7160,6 +7999,9 @@
       <c r="F280" t="n">
         <v>1.057</v>
       </c>
+      <c r="G280" t="n">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -7184,6 +8026,9 @@
       <c r="F281" t="n">
         <v>1.05</v>
       </c>
+      <c r="G281" t="n">
+        <v>-3.22</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -7208,6 +8053,9 @@
       <c r="F282" t="n">
         <v>1.03</v>
       </c>
+      <c r="G282" t="n">
+        <v>-1.52</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -7232,6 +8080,9 @@
       <c r="F283" t="n">
         <v>0.995</v>
       </c>
+      <c r="G283" t="n">
+        <v>-3.28</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -7256,6 +8107,9 @@
       <c r="F284" t="n">
         <v>0.997</v>
       </c>
+      <c r="G284" t="n">
+        <v>3.09</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -7280,6 +8134,9 @@
       <c r="F285" t="n">
         <v>1.024</v>
       </c>
+      <c r="G285" t="n">
+        <v>2.71</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -7304,6 +8161,9 @@
       <c r="F286" t="n">
         <v>1.049</v>
       </c>
+      <c r="G286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -7328,6 +8188,9 @@
       <c r="F287" t="n">
         <v>1.022</v>
       </c>
+      <c r="G287" t="n">
+        <v>-3.02</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -7352,6 +8215,9 @@
       <c r="F288" t="n">
         <v>1.012</v>
       </c>
+      <c r="G288" t="n">
+        <v>1.46</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -7376,6 +8242,9 @@
       <c r="F289" t="n">
         <v>1.03</v>
       </c>
+      <c r="G289" t="n">
+        <v>-1.25</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -7400,6 +8269,9 @@
       <c r="F290" t="n">
         <v>1.006</v>
       </c>
+      <c r="G290" t="n">
+        <v>2.42</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -7424,6 +8296,9 @@
       <c r="F291" t="n">
         <v>1.053</v>
       </c>
+      <c r="G291" t="n">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -7448,6 +8323,9 @@
       <c r="F292" t="n">
         <v>1.048</v>
       </c>
+      <c r="G292" t="n">
+        <v>1.79</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -7472,6 +8350,9 @@
       <c r="F293" t="n">
         <v>1.078</v>
       </c>
+      <c r="G293" t="n">
+        <v>1.94</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -7496,6 +8377,9 @@
       <c r="F294" t="n">
         <v>1.088</v>
       </c>
+      <c r="G294" t="n">
+        <v>-0.09</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -7520,6 +8404,9 @@
       <c r="F295" t="n">
         <v>1.077</v>
       </c>
+      <c r="G295" t="n">
+        <v>-1.45</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -7544,6 +8431,9 @@
       <c r="F296" t="n">
         <v>1.076</v>
       </c>
+      <c r="G296" t="n">
+        <v>2.03</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -7568,6 +8458,9 @@
       <c r="F297" t="n">
         <v>1.096</v>
       </c>
+      <c r="G297" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -7592,6 +8485,9 @@
       <c r="F298" t="n">
         <v>1.1</v>
       </c>
+      <c r="G298" t="n">
+        <v>-0.45</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -7616,6 +8512,9 @@
       <c r="F299" t="n">
         <v>1.121</v>
       </c>
+      <c r="G299" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -7640,6 +8539,9 @@
       <c r="F300" t="n">
         <v>1.118</v>
       </c>
+      <c r="G300" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -7664,6 +8566,9 @@
       <c r="F301" t="n">
         <v>1.13</v>
       </c>
+      <c r="G301" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -7688,6 +8593,9 @@
       <c r="F302" t="n">
         <v>1.133</v>
       </c>
+      <c r="G302" t="n">
+        <v>-1.65</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -7712,6 +8620,9 @@
       <c r="F303" t="n">
         <v>1.113</v>
       </c>
+      <c r="G303" t="n">
+        <v>-0.97</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -7736,6 +8647,9 @@
       <c r="F304" t="n">
         <v>1.071</v>
       </c>
+      <c r="G304" t="n">
+        <v>-4.19</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -7760,6 +8674,9 @@
       <c r="F305" t="n">
         <v>1.059</v>
       </c>
+      <c r="G305" t="n">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -7784,6 +8701,9 @@
       <c r="F306" t="n">
         <v>1.066</v>
       </c>
+      <c r="G306" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -7808,6 +8728,9 @@
       <c r="F307" t="n">
         <v>1.081</v>
       </c>
+      <c r="G307" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -7832,6 +8755,9 @@
       <c r="F308" t="n">
         <v>1.043</v>
       </c>
+      <c r="G308" t="n">
+        <v>-4.82</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -7856,6 +8782,9 @@
       <c r="F309" t="n">
         <v>1.037</v>
       </c>
+      <c r="G309" t="n">
+        <v>1.24</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -7880,6 +8809,9 @@
       <c r="F310" t="n">
         <v>1.02</v>
       </c>
+      <c r="G310" t="n">
+        <v>-2.26</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -7904,6 +8836,9 @@
       <c r="F311" t="n">
         <v>1.032</v>
       </c>
+      <c r="G311" t="n">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -7928,6 +8863,9 @@
       <c r="F312" t="n">
         <v>1.047</v>
       </c>
+      <c r="G312" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -7952,6 +8890,9 @@
       <c r="F313" t="n">
         <v>1.031</v>
       </c>
+      <c r="G313" t="n">
+        <v>-0.85</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -7976,6 +8917,9 @@
       <c r="F314" t="n">
         <v>1.014</v>
       </c>
+      <c r="G314" t="n">
+        <v>-2.96</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -8000,6 +8944,9 @@
       <c r="F315" t="n">
         <v>0.991</v>
       </c>
+      <c r="G315" t="n">
+        <v>-1.28</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -8024,6 +8971,9 @@
       <c r="F316" t="n">
         <v>0.958</v>
       </c>
+      <c r="G316" t="n">
+        <v>-4.29</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -8048,6 +8998,9 @@
       <c r="F317" t="n">
         <v>0.93</v>
       </c>
+      <c r="G317" t="n">
+        <v>-0.83</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -8072,6 +9025,9 @@
       <c r="F318" t="n">
         <v>0.949</v>
       </c>
+      <c r="G318" t="n">
+        <v>2.94</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -8096,6 +9052,9 @@
       <c r="F319" t="n">
         <v>0.948</v>
       </c>
+      <c r="G319" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -8120,6 +9079,9 @@
       <c r="F320" t="n">
         <v>0.973</v>
       </c>
+      <c r="G320" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -8144,6 +9106,9 @@
       <c r="F321" t="n">
         <v>0.955</v>
       </c>
+      <c r="G321" t="n">
+        <v>-2.85</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -8168,6 +9133,9 @@
       <c r="F322" t="n">
         <v>0.93</v>
       </c>
+      <c r="G322" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -8192,6 +9160,9 @@
       <c r="F323" t="n">
         <v>0.957</v>
       </c>
+      <c r="G323" t="n">
+        <v>5.45</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -8216,6 +9187,9 @@
       <c r="F324" t="n">
         <v>0.996</v>
       </c>
+      <c r="G324" t="n">
+        <v>-0.7</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -8240,6 +9214,9 @@
       <c r="F325" t="n">
         <v>0.995</v>
       </c>
+      <c r="G325" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -8264,6 +9241,9 @@
       <c r="F326" t="n">
         <v>0.996</v>
       </c>
+      <c r="G326" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -8288,6 +9268,9 @@
       <c r="F327" t="n">
         <v>1.004</v>
       </c>
+      <c r="G327" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -8312,6 +9295,9 @@
       <c r="F328" t="n">
         <v>1.004</v>
       </c>
+      <c r="G328" t="n">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -8336,6 +9322,9 @@
       <c r="F329" t="n">
         <v>1.003</v>
       </c>
+      <c r="G329" t="n">
+        <v>-1.27</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -8360,6 +9349,9 @@
       <c r="F330" t="n">
         <v>1.004</v>
       </c>
+      <c r="G330" t="n">
+        <v>-0.3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -8384,6 +9376,9 @@
       <c r="F331" t="n">
         <v>0.998</v>
       </c>
+      <c r="G331" t="n">
+        <v>1.49</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -8408,6 +9403,9 @@
       <c r="F332" t="n">
         <v>1.005</v>
       </c>
+      <c r="G332" t="n">
+        <v>-1.37</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -8432,6 +9430,9 @@
       <c r="F333" t="n">
         <v>1.009</v>
       </c>
+      <c r="G333" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -8456,6 +9457,9 @@
       <c r="F334" t="n">
         <v>1.011</v>
       </c>
+      <c r="G334" t="n">
+        <v>2.95</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -8480,6 +9484,9 @@
       <c r="F335" t="n">
         <v>1.044</v>
       </c>
+      <c r="G335" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -8504,6 +9511,9 @@
       <c r="F336" t="n">
         <v>1.059</v>
       </c>
+      <c r="G336" t="n">
+        <v>2.26</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -8528,6 +9538,9 @@
       <c r="F337" t="n">
         <v>1.071</v>
       </c>
+      <c r="G337" t="n">
+        <v>-0.37</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -8552,6 +9565,9 @@
       <c r="F338" t="n">
         <v>1.076</v>
       </c>
+      <c r="G338" t="n">
+        <v>1.57</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -8576,6 +9592,9 @@
       <c r="F339" t="n">
         <v>1.078</v>
       </c>
+      <c r="G339" t="n">
+        <v>-1.55</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -8600,6 +9619,9 @@
       <c r="F340" t="n">
         <v>1.073</v>
       </c>
+      <c r="G340" t="n">
+        <v>-0.19</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -8624,6 +9646,9 @@
       <c r="F341" t="n">
         <v>1.076</v>
       </c>
+      <c r="G341" t="n">
+        <v>2.13</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -8648,6 +9673,9 @@
       <c r="F342" t="n">
         <v>1.064</v>
       </c>
+      <c r="G342" t="n">
+        <v>-3</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -8672,6 +9700,9 @@
       <c r="F343" t="n">
         <v>1.065</v>
       </c>
+      <c r="G343" t="n">
+        <v>3.09</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -8696,6 +9727,9 @@
       <c r="F344" t="n">
         <v>1.098</v>
       </c>
+      <c r="G344" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -8720,6 +9754,9 @@
       <c r="F345" t="n">
         <v>1.104</v>
       </c>
+      <c r="G345" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -8744,6 +9781,9 @@
       <c r="F346" t="n">
         <v>1.113</v>
       </c>
+      <c r="G346" t="n">
+        <v>-0.35</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -8768,6 +9808,9 @@
       <c r="F347" t="n">
         <v>1.1</v>
       </c>
+      <c r="G347" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -8792,6 +9835,9 @@
       <c r="F348" t="n">
         <v>1.125</v>
       </c>
+      <c r="G348" t="n">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -8816,6 +9862,9 @@
       <c r="F349" t="n">
         <v>1.119</v>
       </c>
+      <c r="G349" t="n">
+        <v>-0.61</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -8840,6 +9889,9 @@
       <c r="F350" t="n">
         <v>1.09</v>
       </c>
+      <c r="G350" t="n">
+        <v>-4.04</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -8864,6 +9916,9 @@
       <c r="F351" t="n">
         <v>1.086</v>
       </c>
+      <c r="G351" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -8888,6 +9943,9 @@
       <c r="F352" t="n">
         <v>1.085</v>
       </c>
+      <c r="G352" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -8912,6 +9970,9 @@
       <c r="F353" t="n">
         <v>1.098</v>
       </c>
+      <c r="G353" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -8936,6 +9997,9 @@
       <c r="F354" t="n">
         <v>1.122</v>
       </c>
+      <c r="G354" t="n">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -8960,6 +10024,9 @@
       <c r="F355" t="n">
         <v>1.122</v>
       </c>
+      <c r="G355" t="n">
+        <v>-0.96</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -8984,6 +10051,9 @@
       <c r="F356" t="n">
         <v>1.126</v>
       </c>
+      <c r="G356" t="n">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -9008,6 +10078,9 @@
       <c r="F357" t="n">
         <v>1.119</v>
       </c>
+      <c r="G357" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -9032,6 +10105,9 @@
       <c r="F358" t="n">
         <v>1.142</v>
       </c>
+      <c r="G358" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -9056,6 +10132,9 @@
       <c r="F359" t="n">
         <v>1.114</v>
       </c>
+      <c r="G359" t="n">
+        <v>-1.57</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -9080,6 +10159,9 @@
       <c r="F360" t="n">
         <v>1.116</v>
       </c>
+      <c r="G360" t="n">
+        <v>1.68</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -9104,6 +10186,9 @@
       <c r="F361" t="n">
         <v>1.144</v>
       </c>
+      <c r="G361" t="n">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -9128,6 +10213,9 @@
       <c r="F362" t="n">
         <v>1.152</v>
       </c>
+      <c r="G362" t="n">
+        <v>0.6899999999999999</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -9152,6 +10240,9 @@
       <c r="F363" t="n">
         <v>1.15</v>
       </c>
+      <c r="G363" t="n">
+        <v>-0.52</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -9176,6 +10267,9 @@
       <c r="F364" t="n">
         <v>1.148</v>
       </c>
+      <c r="G364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -9200,6 +10294,9 @@
       <c r="F365" t="n">
         <v>1.131</v>
       </c>
+      <c r="G365" t="n">
+        <v>-1.9</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -9224,6 +10321,9 @@
       <c r="F366" t="n">
         <v>1.089</v>
       </c>
+      <c r="G366" t="n">
+        <v>-1.68</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -9248,6 +10348,9 @@
       <c r="F367" t="n">
         <v>1.098</v>
       </c>
+      <c r="G367" t="n">
+        <v>-0.99</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -9272,6 +10375,9 @@
       <c r="F368" t="n">
         <v>1.101</v>
       </c>
+      <c r="G368" t="n">
+        <v>1.09</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -9296,6 +10402,9 @@
       <c r="F369" t="n">
         <v>1.098</v>
       </c>
+      <c r="G369" t="n">
+        <v>-0.54</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -9320,6 +10429,9 @@
       <c r="F370" t="n">
         <v>1.092</v>
       </c>
+      <c r="G370" t="n">
+        <v>-1.53</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -9344,6 +10456,9 @@
       <c r="F371" t="n">
         <v>1.061</v>
       </c>
+      <c r="G371" t="n">
+        <v>-1.1</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -9368,6 +10483,9 @@
       <c r="F372" t="n">
         <v>1.08</v>
       </c>
+      <c r="G372" t="n">
+        <v>1.02</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -9392,6 +10510,9 @@
       <c r="F373" t="n">
         <v>1.086</v>
       </c>
+      <c r="G373" t="n">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -9416,6 +10537,9 @@
       <c r="F374" t="n">
         <v>1.073</v>
       </c>
+      <c r="G374" t="n">
+        <v>-1.19</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -9440,6 +10564,9 @@
       <c r="F375" t="n">
         <v>0.974</v>
       </c>
+      <c r="G375" t="n">
+        <v>-9.98</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -9464,6 +10591,9 @@
       <c r="F376" t="n">
         <v>0.922</v>
       </c>
+      <c r="G376" t="n">
+        <v>-2.98</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -9488,6 +10618,9 @@
       <c r="F377" t="n">
         <v>0.878</v>
       </c>
+      <c r="G377" t="n">
+        <v>2.86</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -9512,6 +10645,9 @@
       <c r="F378" t="n">
         <v>0.983</v>
       </c>
+      <c r="G378" t="n">
+        <v>3.09</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -9536,6 +10672,9 @@
       <c r="F379" t="n">
         <v>0.989</v>
       </c>
+      <c r="G379" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -9560,6 +10699,9 @@
       <c r="F380" t="n">
         <v>1.019</v>
       </c>
+      <c r="G380" t="n">
+        <v>2.08</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -9584,6 +10726,9 @@
       <c r="F381" t="n">
         <v>1.02</v>
       </c>
+      <c r="G381" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -9608,6 +10753,9 @@
       <c r="F382" t="n">
         <v>0.999</v>
       </c>
+      <c r="G382" t="n">
+        <v>-2.03</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -9632,6 +10780,9 @@
       <c r="F383" t="n">
         <v>1.005</v>
       </c>
+      <c r="G383" t="n">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -9656,6 +10807,9 @@
       <c r="F384" t="n">
         <v>1.008</v>
       </c>
+      <c r="G384" t="n">
+        <v>-0.29</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -9680,6 +10834,9 @@
       <c r="F385" t="n">
         <v>1.01</v>
       </c>
+      <c r="G385" t="n">
+        <v>2.36</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -9704,6 +10861,9 @@
       <c r="F386" t="n">
         <v>1.034</v>
       </c>
+      <c r="G386" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -9728,6 +10888,9 @@
       <c r="F387" t="n">
         <v>1.045</v>
       </c>
+      <c r="G387" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -9752,6 +10915,9 @@
       <c r="F388" t="n">
         <v>1.033</v>
       </c>
+      <c r="G388" t="n">
+        <v>-1.24</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -9776,6 +10942,9 @@
       <c r="F389" t="n">
         <v>1.034</v>
       </c>
+      <c r="G389" t="n">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -9800,6 +10969,9 @@
       <c r="F390" t="n">
         <v>1.024</v>
       </c>
+      <c r="G390" t="n">
+        <v>-1.25</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -9824,6 +10996,9 @@
       <c r="F391" t="n">
         <v>1.02</v>
       </c>
+      <c r="G391" t="n">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -9848,6 +11023,9 @@
       <c r="F392" t="n">
         <v>1.038</v>
       </c>
+      <c r="G392" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -9872,6 +11050,9 @@
       <c r="F393" t="n">
         <v>1.056</v>
       </c>
+      <c r="G393" t="n">
+        <v>2.95</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -9895,6 +11076,198 @@
       </c>
       <c r="F394" t="n">
         <v>1.076</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>20250508</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D395" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="E395" t="n">
+        <v>1.102</v>
+      </c>
+      <c r="F395" t="n">
+        <v>1.082</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>1.085</v>
+      </c>
+      <c r="D396" t="n">
+        <v>1.099</v>
+      </c>
+      <c r="E396" t="n">
+        <v>1.099</v>
+      </c>
+      <c r="F396" t="n">
+        <v>1.077</v>
+      </c>
+      <c r="G396" t="n">
+        <v>-1.36</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>20250512</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D397" t="n">
+        <v>1.092</v>
+      </c>
+      <c r="E397" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="F397" t="n">
+        <v>1.086</v>
+      </c>
+      <c r="G397" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>20250513</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>1.094</v>
+      </c>
+      <c r="D398" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="E398" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="F398" t="n">
+        <v>1.093</v>
+      </c>
+      <c r="G398" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>20250514</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>1.097</v>
+      </c>
+      <c r="D399" t="n">
+        <v>1.094</v>
+      </c>
+      <c r="E399" t="n">
+        <v>1.103</v>
+      </c>
+      <c r="F399" t="n">
+        <v>1.089</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>20250515</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>1.082</v>
+      </c>
+      <c r="D400" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="E400" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="F400" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G400" t="n">
+        <v>-1.37</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>20250516</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>SH563300</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D401" t="n">
+        <v>1.079</v>
+      </c>
+      <c r="E401" t="n">
+        <v>1.096</v>
+      </c>
+      <c r="F401" t="n">
+        <v>1.076</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.74</v>
       </c>
     </row>
   </sheetData>
